--- a/CompititiveTask/bin/Debug/netcoreapp3.1/Data/TestData.xlsx
+++ b/CompititiveTask/bin/Debug/netcoreapp3.1/Data/TestData.xlsx
@@ -4,18 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="585" windowWidth="13095" windowHeight="7365" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="585" windowWidth="13095" windowHeight="7365" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Credentials" sheetId="1" r:id="rId1"/>
-    <sheet name="ShareSkill" sheetId="2" r:id="rId2"/>
+    <sheet name="Profile" sheetId="3" r:id="rId2"/>
+    <sheet name="ShareSkill" sheetId="2" r:id="rId3"/>
+    <sheet name="SearchSkill" sheetId="4" r:id="rId4"/>
+    <sheet name="Register" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="90">
   <si>
     <t>username</t>
   </si>
@@ -23,9 +26,6 @@
     <t>password</t>
   </si>
   <si>
-    <t>mayuri00gohil@gmail.com</t>
-  </si>
-  <si>
     <t>Mayuri@123</t>
   </si>
   <si>
@@ -177,6 +177,118 @@
   </si>
   <si>
     <t>On-Site</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Skills</t>
+  </si>
+  <si>
+    <t>CollegeName</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>SkillLevel</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>degree</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Certificate</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>CertificationYear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hands on Experience in Creating a Testing Frame work from Scratch using POM and Page Factory.
+Experinece in creating Nunit Framework working in Agile. </t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Intermediate</t>
+  </si>
+  <si>
+    <t>Auckland University</t>
+  </si>
+  <si>
+    <t>B.Tech</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Bachleors</t>
+  </si>
+  <si>
+    <t>ISTQB</t>
+  </si>
+  <si>
+    <t>Industry connect</t>
+  </si>
+  <si>
+    <t>Fluent</t>
+  </si>
+  <si>
+    <t>CollegeTitle</t>
+  </si>
+  <si>
+    <t>Mayuri00gohil@gmail.com</t>
+  </si>
+  <si>
+    <t>SearchCategory</t>
+  </si>
+  <si>
+    <t>Fun &amp; Lifestyle</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Mayuri</t>
+  </si>
+  <si>
+    <t>Firstname</t>
+  </si>
+  <si>
+    <t>Lastname</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>ConfirmPassword</t>
+  </si>
+  <si>
+    <t>Pahel</t>
+  </si>
+  <si>
+    <t>Gohil</t>
+  </si>
+  <si>
+    <t>Valid</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>paujll.goihljj@gmjail.cokum</t>
   </si>
 </sst>
 </file>
@@ -246,7 +358,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -257,6 +369,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -465,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1000"/>
+  <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -478,30 +591,36 @@
     <col min="3" max="26" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.25">
+    <row r="1" spans="1:3" ht="14.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="4" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" ht="14.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:3" ht="14.25">
+      <c r="A2" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>3</v>
+      <c r="C2" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
     </row>
-    <row r="4" spans="1:2" ht="14.25">
+    <row r="4" spans="1:3" ht="14.25">
       <c r="A4" s="2"/>
     </row>
-    <row r="5" spans="1:2" ht="14.25">
+    <row r="5" spans="1:3" ht="14.25">
       <c r="A5" s="2"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -1487,17 +1606,121 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="53.125" customWidth="1"/>
+    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="42.75">
+      <c r="A2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2">
+        <v>2014</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="M2">
+        <v>2010</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
@@ -1512,69 +1735,69 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
       <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="G1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="K1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="M1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="O1" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="G2">
         <v>30052021</v>
@@ -1583,45 +1806,45 @@
         <v>28062021</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="M2">
         <v>5</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="99.75">
       <c r="A3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="G3">
         <v>30052021</v>
@@ -1630,45 +1853,45 @@
         <v>28062021</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M3">
         <v>8</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="G4">
         <v>30052021</v>
@@ -1677,45 +1900,45 @@
         <v>28062021</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="M4">
         <v>5</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="G5">
         <v>30052021</v>
@@ -1724,45 +1947,45 @@
         <v>28062021</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="M5">
         <v>5</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="G6">
         <v>30052021</v>
@@ -1771,29 +1994,122 @@
         <v>28062021</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M6">
         <v>6</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="14.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="3" max="3" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId2"/>
+    <hyperlink ref="E2" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>